--- a/src/test/resources/files/Structure.xlsx
+++ b/src/test/resources/files/Structure.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nacho\Web_Foundation_Index\wiFetcher\src\main\resources\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nacho\Web_Foundation_Index\wiFetcher\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8085" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="486">
   <si>
     <t>Subindex</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>ABQ2</t>
   </si>
   <si>
-    <t>Test indicator</t>
-  </si>
-  <si>
     <t>WESO</t>
   </si>
   <si>
@@ -1465,6 +1462,24 @@
   </si>
   <si>
     <t>United Kingdom of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>A Test indicator</t>
+  </si>
+  <si>
+    <t>B Test indicator</t>
+  </si>
+  <si>
+    <t>C Test indicator</t>
+  </si>
+  <si>
+    <t>D Test indicator</t>
+  </si>
+  <si>
+    <t>Q1 Test indicator</t>
+  </si>
+  <si>
+    <t>Q2 Test indicator</t>
   </si>
 </sst>
 </file>
@@ -2054,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E12" t="s">
         <v>473</v>
-      </c>
-      <c r="E12" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2071,100 +2086,100 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" t="s">
         <v>473</v>
-      </c>
-      <c r="E13" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>472</v>
+      </c>
+      <c r="E14" t="s">
         <v>473</v>
-      </c>
-      <c r="E14" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" t="s">
         <v>468</v>
       </c>
-      <c r="B15" t="s">
-        <v>469</v>
-      </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>472</v>
+      </c>
+      <c r="E15" t="s">
         <v>473</v>
-      </c>
-      <c r="E15" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>472</v>
+      </c>
+      <c r="E16" t="s">
         <v>473</v>
-      </c>
-      <c r="E16" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
+        <v>472</v>
+      </c>
+      <c r="E17" t="s">
         <v>473</v>
-      </c>
-      <c r="E17" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>472</v>
       </c>
-      <c r="B18" t="s">
-        <v>472</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>473</v>
-      </c>
-      <c r="E18" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
         <v>464</v>
@@ -2173,10 +2188,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>472</v>
+      </c>
+      <c r="E19" t="s">
         <v>473</v>
-      </c>
-      <c r="E19" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2193,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5130,13 +5145,13 @@
         <v>464</v>
       </c>
       <c r="D87" t="s">
+        <v>462</v>
+      </c>
+      <c r="E87" t="s">
+        <v>480</v>
+      </c>
+      <c r="F87" t="s">
         <v>465</v>
-      </c>
-      <c r="E87" t="s">
-        <v>465</v>
-      </c>
-      <c r="F87" t="s">
-        <v>466</v>
       </c>
       <c r="K87" t="s">
         <v>60</v>
@@ -5150,7 +5165,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B88" t="s">
         <v>463</v>
@@ -5159,13 +5174,13 @@
         <v>464</v>
       </c>
       <c r="D88" t="s">
+        <v>466</v>
+      </c>
+      <c r="E88" t="s">
+        <v>481</v>
+      </c>
+      <c r="F88" t="s">
         <v>465</v>
-      </c>
-      <c r="E88" t="s">
-        <v>465</v>
-      </c>
-      <c r="F88" t="s">
-        <v>466</v>
       </c>
       <c r="K88" t="s">
         <v>60</v>
@@ -5180,22 +5195,22 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B89" t="s">
+        <v>467</v>
+      </c>
+      <c r="C89" t="s">
         <v>468</v>
       </c>
-      <c r="B89" t="s">
-        <v>468</v>
-      </c>
-      <c r="C89" t="s">
-        <v>469</v>
-      </c>
       <c r="D89" t="s">
+        <v>467</v>
+      </c>
+      <c r="E89" t="s">
+        <v>482</v>
+      </c>
+      <c r="F89" t="s">
         <v>465</v>
-      </c>
-      <c r="E89" t="s">
-        <v>465</v>
-      </c>
-      <c r="F89" t="s">
-        <v>466</v>
       </c>
       <c r="K89" t="s">
         <v>60</v>
@@ -5210,22 +5225,22 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B90" t="s">
         <v>470</v>
       </c>
-      <c r="B90" t="s">
-        <v>471</v>
-      </c>
       <c r="C90" t="s">
+        <v>468</v>
+      </c>
+      <c r="D90" t="s">
         <v>469</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
+        <v>483</v>
+      </c>
+      <c r="F90" t="s">
         <v>465</v>
-      </c>
-      <c r="E90" t="s">
-        <v>465</v>
-      </c>
-      <c r="F90" t="s">
-        <v>466</v>
       </c>
       <c r="K90" t="s">
         <v>60</v>
@@ -5242,19 +5257,19 @@
         <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D91" t="s">
+        <v>359</v>
+      </c>
+      <c r="E91" t="s">
+        <v>484</v>
+      </c>
+      <c r="F91" t="s">
         <v>465</v>
-      </c>
-      <c r="E91" t="s">
-        <v>465</v>
-      </c>
-      <c r="F91" t="s">
-        <v>466</v>
       </c>
       <c r="K91" t="s">
         <v>116</v>
@@ -5269,22 +5284,22 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B92" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C92" t="s">
         <v>464</v>
       </c>
       <c r="D92" t="s">
+        <v>471</v>
+      </c>
+      <c r="E92" t="s">
+        <v>485</v>
+      </c>
+      <c r="F92" t="s">
         <v>465</v>
-      </c>
-      <c r="E92" t="s">
-        <v>465</v>
-      </c>
-      <c r="F92" t="s">
-        <v>466</v>
       </c>
       <c r="K92" t="s">
         <v>116</v>
@@ -5310,7 +5325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -5446,7 +5461,7 @@
         <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -5534,7 +5549,7 @@
         <v>385</v>
       </c>
       <c r="B27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,7 +5557,7 @@
         <v>385</v>
       </c>
       <c r="B28" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -5574,7 +5589,7 @@
         <v>393</v>
       </c>
       <c r="B32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -5742,7 +5757,7 @@
         <v>407</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -5774,7 +5789,7 @@
         <v>407</v>
       </c>
       <c r="B57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
